--- a/biology/Médecine/1774_en_santé_et_médecine/1774_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1774_en_santé_et_médecine/1774_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1774_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1774_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1774 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1774_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1774_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4 février : Charles Marie de La Condamine meurt des suites d'une intervention pour une hernie[1].
-10 mai : Louis XV meurt à Versailles de la variole[2].
-Louis XVI inaugure un bâtiment construit pour la Communauté des chirurgiens, rue des Cordeliers (aujourd'hui rue de l'École de médecine) par l'architecte Jacques Gondouin[3].
-Peste bovine dans le sud-ouest de la France[4],[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 février : Charles Marie de La Condamine meurt des suites d'une intervention pour une hernie.
+10 mai : Louis XV meurt à Versailles de la variole.
+Louis XVI inaugure un bâtiment construit pour la Communauté des chirurgiens, rue des Cordeliers (aujourd'hui rue de l'École de médecine) par l'architecte Jacques Gondouin.
+Peste bovine dans le sud-ouest de la France,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1774_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1774_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nikolai Detlef Falck : The Seaman's Medical Instructor[6],[7].
-Sugita Genpaku : Kaitai shinsho (Nouveau livre d'anatomie), traduction en japonais d'un traité hollandais d'anatomie Ontleedkundige Tafelen de Johann Adam Kulmus, en 4 volumes (dont 1 d'illustrations)[8].
-Toussaint Bordenave : Mémoires sur le danger des caustiques pour la cure radicale des hernies[9].
-Théophile de Bordeu : Traité de médecine théorique et pratique[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nikolai Detlef Falck : The Seaman's Medical Instructor,.
+Sugita Genpaku : Kaitai shinsho (Nouveau livre d'anatomie), traduction en japonais d'un traité hollandais d'anatomie Ontleedkundige Tafelen de Johann Adam Kulmus, en 4 volumes (dont 1 d'illustrations).
+Toussaint Bordenave : Mémoires sur le danger des caustiques pour la cure radicale des hernies.
+Théophile de Bordeu : Traité de médecine théorique et pratique.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1774_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1774_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1er janvier : André Marie Constant Duméril (mort en 1860), médecin, anatomiste et zoologiste français[11].
-24 mars : Jean Loiseleur-Deslongchamps (mort en 1849), médecin et botaniste français[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er janvier : André Marie Constant Duméril (mort en 1860), médecin, anatomiste et zoologiste français.
+24 mars : Jean Loiseleur-Deslongchamps (mort en 1849), médecin et botaniste français.
 24 avril : Jean Itard (mort en 1838), médecin français, célèbre par son travail sur le cas de l'enfant sauvage, Victor de l'Aveyron.
 18 août : Gaspard Bayle (mort en 1816), médecin et pathologiste français.
 2 novembre : Georges Serullas (mort en 1832), chimiste et pharmacien français.</t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1774_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1774_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,10 +629,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>27 juillet : Samuel Gottlieb Gmelin (né en 1744), médecin, naturaliste et explorateur allemand au service de l'Empire russe[13].
-16 décembre : François Quesnay (né en 1694), médecin et économiste français[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>27 juillet : Samuel Gottlieb Gmelin (né en 1744), médecin, naturaliste et explorateur allemand au service de l'Empire russe.
+16 décembre : François Quesnay (né en 1694), médecin et économiste français.</t>
         </is>
       </c>
     </row>
